--- a/LBC_Y_ERROR.xlsx
+++ b/LBC_Y_ERROR.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="21">
-  <si>
-    <t>Frt29464</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+  <si>
+    <t>Frt31828</t>
   </si>
   <si>
     <t>LBC GORRO LABORAL</t>
@@ -55,25 +55,7 @@
     <t>LBC SABADO</t>
   </si>
   <si>
-    <t>Frt30837</t>
-  </si>
-  <si>
-    <t>Frt31803</t>
-  </si>
-  <si>
-    <t>Frt33302</t>
-  </si>
-  <si>
-    <t>Frt34406</t>
-  </si>
-  <si>
     <t>Frt37374</t>
-  </si>
-  <si>
-    <t>Frt41704</t>
-  </si>
-  <si>
-    <t>Frt42173</t>
   </si>
   <si>
     <t>FRONTERA</t>
@@ -100,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,19 +103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDFA801"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFDFA801"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,9 +154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -529,40 +502,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>105199.207254592</v>
+        <v>317432.9006410256</v>
       </c>
       <c r="C2" s="3">
-        <v>104854.56</v>
+        <v>310881.7457142857</v>
       </c>
       <c r="D2" s="3">
-        <v>105054.7871428571</v>
+        <v>315648.5357142857</v>
       </c>
       <c r="E2" s="3">
-        <v>76625.558</v>
+        <v>300788.216</v>
       </c>
       <c r="F2" s="4">
-        <v>16.48</v>
-      </c>
-      <c r="G2" s="5">
-        <v>31.63</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1.39</v>
-      </c>
-      <c r="I2" s="5">
-        <v>41.2</v>
+        <v>3.02</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.31</v>
       </c>
       <c r="J2" s="4">
-        <v>87862</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>105054</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
+        <v>317432</v>
+      </c>
+      <c r="K2" s="4">
+        <v>310881</v>
+      </c>
+      <c r="L2" s="4">
+        <v>315648</v>
+      </c>
+      <c r="M2" s="4">
+        <v>300788</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -570,286 +543,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>63764.03323170731</v>
+        <v>866352.438974359</v>
       </c>
       <c r="C3" s="3">
-        <v>92220.32333333332</v>
+        <v>895196.1657142857</v>
       </c>
       <c r="D3" s="3">
-        <v>92782.09</v>
+        <v>913462.8846428571</v>
       </c>
       <c r="E3" s="3">
-        <v>61656.09</v>
+        <v>905694.2100000002</v>
       </c>
       <c r="F3" s="5">
-        <v>63.68</v>
+        <v>10.89</v>
       </c>
       <c r="G3" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>15.12</v>
+        <v>9.91</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8.01</v>
       </c>
       <c r="I3" s="5">
-        <v>54.61</v>
+        <v>15.54</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>772006</v>
       </c>
       <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>78753</v>
+        <v>806482</v>
+      </c>
+      <c r="L3" s="5">
+        <v>840294</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10757.28243902439</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9457.718333333332</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10730.25714285714</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9178.425999999998</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6.02</v>
-      </c>
-      <c r="G4" s="4">
-        <v>6.71</v>
-      </c>
-      <c r="H4" s="6">
-        <v>4.41</v>
-      </c>
-      <c r="I4" s="4">
-        <v>7.85</v>
-      </c>
-      <c r="J4" s="4">
-        <v>10109</v>
-      </c>
-      <c r="K4" s="4">
-        <v>8823</v>
-      </c>
-      <c r="L4" s="6">
-        <v>10730</v>
-      </c>
-      <c r="M4" s="4">
-        <v>8457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>31567.74609756097</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30407.35166666667</v>
-      </c>
-      <c r="D5" s="3">
-        <v>30947.85285714286</v>
-      </c>
-      <c r="E5" s="3">
-        <v>27952.59</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.27</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3.92</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3.05</v>
-      </c>
-      <c r="I5" s="4">
-        <v>12.64</v>
-      </c>
-      <c r="J5" s="4">
-        <v>29904</v>
-      </c>
-      <c r="K5" s="6">
-        <v>30407</v>
-      </c>
-      <c r="L5" s="6">
-        <v>30947</v>
-      </c>
-      <c r="M5" s="4">
-        <v>24419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>91384.62134146341</v>
-      </c>
-      <c r="C6" s="3">
-        <v>86666.40916666666</v>
-      </c>
-      <c r="D6" s="3">
-        <v>88626.88142857142</v>
-      </c>
-      <c r="E6" s="3">
-        <v>85633.304</v>
-      </c>
-      <c r="F6" s="4">
-        <v>19.49</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5.77</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4.93</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="J6" s="4">
-        <v>73573</v>
-      </c>
-      <c r="K6" s="4">
-        <v>81665</v>
-      </c>
-      <c r="L6" s="6">
-        <v>88626</v>
-      </c>
-      <c r="M6" s="6">
-        <v>85633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3">
-        <v>872826.1251219513</v>
-      </c>
-      <c r="C7" s="3">
-        <v>876556.9816666668</v>
-      </c>
-      <c r="D7" s="3">
-        <v>891013.3042857142</v>
-      </c>
-      <c r="E7" s="3">
-        <v>864779.606</v>
-      </c>
-      <c r="F7" s="4">
-        <v>11.41</v>
-      </c>
-      <c r="G7" s="4">
-        <v>12.71</v>
-      </c>
-      <c r="H7" s="5">
-        <v>32.18</v>
-      </c>
-      <c r="I7" s="4">
-        <v>16.42</v>
-      </c>
-      <c r="J7" s="4">
-        <v>773236</v>
-      </c>
-      <c r="K7" s="4">
-        <v>765146</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>722782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2685.907256097561</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2563.346666666666</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2713.308571428571</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2514.646</v>
-      </c>
-      <c r="F8" s="4">
-        <v>11.03</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2.91</v>
-      </c>
-      <c r="H8" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1.14</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2389</v>
-      </c>
-      <c r="K8" s="6">
-        <v>2563</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2455</v>
-      </c>
-      <c r="M8" s="6">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2196.893902439024</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2139.216666666667</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2219.628571428571</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2098.81</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.57</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.18</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3.66</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1.29</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2052</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2139</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2219</v>
-      </c>
-      <c r="M9" s="6">
-        <v>2098</v>
+        <v>764949</v>
       </c>
     </row>
   </sheetData>

--- a/LBC_Y_ERROR.xlsx
+++ b/LBC_Y_ERROR.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
-  <si>
-    <t>Frt31828</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="21">
+  <si>
+    <t>Frt29464</t>
   </si>
   <si>
     <t>LBC GORRO LABORAL</t>
@@ -55,7 +55,25 @@
     <t>LBC SABADO</t>
   </si>
   <si>
+    <t>Frt30837</t>
+  </si>
+  <si>
+    <t>Frt31803</t>
+  </si>
+  <si>
+    <t>Frt33302</t>
+  </si>
+  <si>
+    <t>Frt34406</t>
+  </si>
+  <si>
     <t>Frt37374</t>
+  </si>
+  <si>
+    <t>Frt41704</t>
+  </si>
+  <si>
+    <t>Frt42173</t>
   </si>
   <si>
     <t>FRONTERA</t>
@@ -82,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +178,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -502,40 +529,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>317432.9006410256</v>
+        <v>105199.207254592</v>
       </c>
       <c r="C2" s="3">
-        <v>310881.7457142857</v>
+        <v>104854.56</v>
       </c>
       <c r="D2" s="3">
-        <v>315648.5357142857</v>
+        <v>105054.7871428571</v>
       </c>
       <c r="E2" s="3">
-        <v>300788.216</v>
+        <v>76625.558</v>
       </c>
       <c r="F2" s="4">
-        <v>3.02</v>
+        <v>0.65</v>
       </c>
       <c r="G2" s="4">
-        <v>2.88</v>
+        <v>0.14</v>
       </c>
       <c r="H2" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2.31</v>
+        <v>0.37</v>
+      </c>
+      <c r="I2" s="5">
+        <v>41.2</v>
       </c>
       <c r="J2" s="4">
-        <v>317432</v>
+        <v>105199</v>
       </c>
       <c r="K2" s="4">
-        <v>310881</v>
+        <v>104854</v>
       </c>
       <c r="L2" s="4">
-        <v>315648</v>
-      </c>
-      <c r="M2" s="4">
-        <v>300788</v>
+        <v>105054</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -543,40 +570,286 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>866352.438974359</v>
+        <v>63764.03323170731</v>
       </c>
       <c r="C3" s="3">
-        <v>895196.1657142857</v>
+        <v>92220.32333333332</v>
       </c>
       <c r="D3" s="3">
-        <v>913462.8846428571</v>
+        <v>92782.09</v>
       </c>
       <c r="E3" s="3">
-        <v>905694.2100000002</v>
+        <v>61656.09</v>
       </c>
       <c r="F3" s="5">
-        <v>10.89</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.91</v>
-      </c>
-      <c r="H3" s="5">
-        <v>8.01</v>
+        <v>62.13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.52</v>
       </c>
       <c r="I3" s="5">
-        <v>15.54</v>
+        <v>54.61</v>
       </c>
       <c r="J3" s="5">
-        <v>772006</v>
-      </c>
-      <c r="K3" s="5">
-        <v>806482</v>
-      </c>
-      <c r="L3" s="5">
-        <v>840294</v>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>92220</v>
+      </c>
+      <c r="L3" s="4">
+        <v>92782</v>
       </c>
       <c r="M3" s="5">
-        <v>764949</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10757.28243902439</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9457.718333333332</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10730.25714285714</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9178.425999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.23</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10757</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9457</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10730</v>
+      </c>
+      <c r="M4" s="6">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>31567.74609756097</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30407.35166666667</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30947.85285714286</v>
+      </c>
+      <c r="E5" s="3">
+        <v>27952.59</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="I5" s="6">
+        <v>12.64</v>
+      </c>
+      <c r="J5" s="4">
+        <v>31567</v>
+      </c>
+      <c r="K5" s="4">
+        <v>30407</v>
+      </c>
+      <c r="L5" s="4">
+        <v>30947</v>
+      </c>
+      <c r="M5" s="6">
+        <v>24419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>91384.62134146341</v>
+      </c>
+      <c r="C6" s="3">
+        <v>86666.40916666666</v>
+      </c>
+      <c r="D6" s="3">
+        <v>88626.88142857142</v>
+      </c>
+      <c r="E6" s="3">
+        <v>85633.304</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="J6" s="4">
+        <v>91384</v>
+      </c>
+      <c r="K6" s="4">
+        <v>86666</v>
+      </c>
+      <c r="L6" s="4">
+        <v>88626</v>
+      </c>
+      <c r="M6" s="4">
+        <v>85633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>872826.1251219513</v>
+      </c>
+      <c r="C7" s="3">
+        <v>876556.9816666668</v>
+      </c>
+      <c r="D7" s="3">
+        <v>891013.3042857142</v>
+      </c>
+      <c r="E7" s="3">
+        <v>864779.606</v>
+      </c>
+      <c r="F7" s="6">
+        <v>11.04</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="I7" s="6">
+        <v>16.42</v>
+      </c>
+      <c r="J7" s="6">
+        <v>776466</v>
+      </c>
+      <c r="K7" s="6">
+        <v>794335</v>
+      </c>
+      <c r="L7" s="6">
+        <v>802268</v>
+      </c>
+      <c r="M7" s="6">
+        <v>722782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2685.907256097561</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2563.346666666666</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2713.308571428571</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2514.646</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.54</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.14</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2685</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2563</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2713</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2196.893902439024</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2139.216666666667</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2219.628571428571</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2098.81</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2196</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2139</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2219</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2098</v>
       </c>
     </row>
   </sheetData>

--- a/LBC_Y_ERROR.xlsx
+++ b/LBC_Y_ERROR.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="21">
-  <si>
-    <t>Frt29464</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+  <si>
+    <t>Frt31828</t>
   </si>
   <si>
     <t>LBC GORRO LABORAL</t>
@@ -55,25 +55,7 @@
     <t>LBC SABADO</t>
   </si>
   <si>
-    <t>Frt30837</t>
-  </si>
-  <si>
-    <t>Frt31803</t>
-  </si>
-  <si>
-    <t>Frt33302</t>
-  </si>
-  <si>
-    <t>Frt34406</t>
-  </si>
-  <si>
     <t>Frt37374</t>
-  </si>
-  <si>
-    <t>Frt41704</t>
-  </si>
-  <si>
-    <t>Frt42173</t>
   </si>
   <si>
     <t>FRONTERA</t>
@@ -100,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,9 +154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -529,40 +502,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>105199.207254592</v>
+        <v>317432.9006410256</v>
       </c>
       <c r="C2" s="3">
-        <v>104854.56</v>
+        <v>310881.7457142857</v>
       </c>
       <c r="D2" s="3">
-        <v>105054.7871428571</v>
+        <v>315648.5357142857</v>
       </c>
       <c r="E2" s="3">
-        <v>76625.558</v>
+        <v>300788.216</v>
       </c>
       <c r="F2" s="4">
-        <v>0.65</v>
+        <v>3.02</v>
       </c>
       <c r="G2" s="4">
-        <v>0.14</v>
+        <v>2.88</v>
       </c>
       <c r="H2" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="I2" s="5">
-        <v>41.2</v>
+        <v>3.33</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.31</v>
       </c>
       <c r="J2" s="4">
-        <v>105199</v>
+        <v>317432</v>
       </c>
       <c r="K2" s="4">
-        <v>104854</v>
+        <v>310881</v>
       </c>
       <c r="L2" s="4">
-        <v>105054</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
+        <v>315648</v>
+      </c>
+      <c r="M2" s="4">
+        <v>300788</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -570,286 +543,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>63764.03323170731</v>
+        <v>866352.438974359</v>
       </c>
       <c r="C3" s="3">
-        <v>92220.32333333332</v>
+        <v>895196.1657142857</v>
       </c>
       <c r="D3" s="3">
-        <v>92782.09</v>
+        <v>913462.8846428571</v>
       </c>
       <c r="E3" s="3">
-        <v>61656.09</v>
+        <v>905694.2100000002</v>
       </c>
       <c r="F3" s="5">
-        <v>62.13</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2.52</v>
+        <v>10.89</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9.91</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8.01</v>
       </c>
       <c r="I3" s="5">
-        <v>54.61</v>
+        <v>15.54</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>92220</v>
-      </c>
-      <c r="L3" s="4">
-        <v>92782</v>
+        <v>772006</v>
+      </c>
+      <c r="K3" s="5">
+        <v>806482</v>
+      </c>
+      <c r="L3" s="5">
+        <v>840294</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10757.28243902439</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9457.718333333332</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10730.25714285714</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9178.425999999998</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.23</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.47</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.09</v>
-      </c>
-      <c r="I4" s="6">
-        <v>7.85</v>
-      </c>
-      <c r="J4" s="4">
-        <v>10757</v>
-      </c>
-      <c r="K4" s="4">
-        <v>9457</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10730</v>
-      </c>
-      <c r="M4" s="6">
-        <v>8457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>31567.74609756097</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30407.35166666667</v>
-      </c>
-      <c r="D5" s="3">
-        <v>30947.85285714286</v>
-      </c>
-      <c r="E5" s="3">
-        <v>27952.59</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3.53</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.99</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="I5" s="6">
-        <v>12.64</v>
-      </c>
-      <c r="J5" s="4">
-        <v>31567</v>
-      </c>
-      <c r="K5" s="4">
-        <v>30407</v>
-      </c>
-      <c r="L5" s="4">
-        <v>30947</v>
-      </c>
-      <c r="M5" s="6">
-        <v>24419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>91384.62134146341</v>
-      </c>
-      <c r="C6" s="3">
-        <v>86666.40916666666</v>
-      </c>
-      <c r="D6" s="3">
-        <v>88626.88142857142</v>
-      </c>
-      <c r="E6" s="3">
-        <v>85633.304</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4.28</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3.97</v>
-      </c>
-      <c r="J6" s="4">
-        <v>91384</v>
-      </c>
-      <c r="K6" s="4">
-        <v>86666</v>
-      </c>
-      <c r="L6" s="4">
-        <v>88626</v>
-      </c>
-      <c r="M6" s="4">
-        <v>85633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3">
-        <v>872826.1251219513</v>
-      </c>
-      <c r="C7" s="3">
-        <v>876556.9816666668</v>
-      </c>
-      <c r="D7" s="3">
-        <v>891013.3042857142</v>
-      </c>
-      <c r="E7" s="3">
-        <v>864779.606</v>
-      </c>
-      <c r="F7" s="6">
-        <v>11.04</v>
-      </c>
-      <c r="G7" s="6">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="I7" s="6">
-        <v>16.42</v>
-      </c>
-      <c r="J7" s="6">
-        <v>776466</v>
-      </c>
-      <c r="K7" s="6">
-        <v>794335</v>
-      </c>
-      <c r="L7" s="6">
-        <v>802268</v>
-      </c>
-      <c r="M7" s="6">
-        <v>722782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2685.907256097561</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2563.346666666666</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2713.308571428571</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2514.646</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.54</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.19</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.14</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2685</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2563</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2713</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2196.893902439024</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2139.216666666667</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2219.628571428571</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2098.81</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3.43</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.09</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2196</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2139</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2219</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2098</v>
+        <v>764949</v>
       </c>
     </row>
   </sheetData>

--- a/LBC_Y_ERROR.xlsx
+++ b/LBC_Y_ERROR.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
-    <t>Frt31828</t>
+    <t>Frt00903</t>
   </si>
   <si>
     <t>LBC GORRO LABORAL</t>
@@ -55,7 +55,7 @@
     <t>LBC SABADO</t>
   </si>
   <si>
-    <t>Frt37374</t>
+    <t>Frt00904</t>
   </si>
   <si>
     <t>FRONTERA</t>
@@ -82,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDFA801"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +160,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,40 +511,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>317432.9006410256</v>
+        <v>56829.94447908064</v>
       </c>
       <c r="C2" s="3">
-        <v>310881.7457142857</v>
+        <v>51390.18353058541</v>
       </c>
       <c r="D2" s="3">
-        <v>315648.5357142857</v>
+        <v>56517.89238430102</v>
       </c>
       <c r="E2" s="3">
-        <v>300788.216</v>
+        <v>40836.15894370009</v>
       </c>
       <c r="F2" s="4">
-        <v>3.02</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2.88</v>
+        <v>2.82</v>
+      </c>
+      <c r="G2" s="5">
+        <v>9.710000000000001</v>
       </c>
       <c r="H2" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2.31</v>
+        <v>2.27</v>
+      </c>
+      <c r="I2" s="5">
+        <v>14.86</v>
       </c>
       <c r="J2" s="4">
-        <v>317432</v>
-      </c>
-      <c r="K2" s="4">
-        <v>310881</v>
+        <v>56829</v>
+      </c>
+      <c r="K2" s="5">
+        <v>46400</v>
       </c>
       <c r="L2" s="4">
-        <v>315648</v>
-      </c>
-      <c r="M2" s="4">
-        <v>300788</v>
+        <v>56517</v>
+      </c>
+      <c r="M2" s="5">
+        <v>34767</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -543,40 +552,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>866352.438974359</v>
+        <v>56928.93506456845</v>
       </c>
       <c r="C3" s="3">
-        <v>895196.1657142857</v>
+        <v>55114.97783579399</v>
       </c>
       <c r="D3" s="3">
-        <v>913462.8846428571</v>
+        <v>56950.48446216419</v>
       </c>
       <c r="E3" s="3">
-        <v>905694.2100000002</v>
-      </c>
-      <c r="F3" s="5">
-        <v>10.89</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.91</v>
-      </c>
-      <c r="H3" s="5">
-        <v>8.01</v>
-      </c>
-      <c r="I3" s="5">
-        <v>15.54</v>
-      </c>
-      <c r="J3" s="5">
-        <v>772006</v>
-      </c>
-      <c r="K3" s="5">
-        <v>806482</v>
-      </c>
-      <c r="L3" s="5">
-        <v>840294</v>
-      </c>
-      <c r="M3" s="5">
-        <v>764949</v>
+        <v>45233.67415171812</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="I3" s="6">
+        <v>21.89</v>
+      </c>
+      <c r="J3" s="4">
+        <v>56928</v>
+      </c>
+      <c r="K3" s="4">
+        <v>55114</v>
+      </c>
+      <c r="L3" s="4">
+        <v>56950</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LBC_Y_ERROR.xlsx
+++ b/LBC_Y_ERROR.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
-  <si>
-    <t>Frt00903</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+  <si>
+    <t>Frt37374</t>
   </si>
   <si>
     <t>LBC GORRO LABORAL</t>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>LBC SABADO</t>
-  </si>
-  <si>
-    <t>Frt00904</t>
   </si>
   <si>
     <t>FRONTERA</t>
@@ -82,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,19 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDFA801"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,12 +142,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -511,81 +490,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>56829.94447908064</v>
+        <v>866790.2524151884</v>
       </c>
       <c r="C2" s="3">
-        <v>51390.18353058541</v>
+        <v>887238.8575680914</v>
       </c>
       <c r="D2" s="3">
-        <v>56517.89238430102</v>
+        <v>908660.262204579</v>
       </c>
       <c r="E2" s="3">
-        <v>40836.15894370009</v>
+        <v>933346.3811883949</v>
       </c>
       <c r="F2" s="4">
-        <v>2.82</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9.710000000000001</v>
+        <v>10.12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.68</v>
       </c>
       <c r="H2" s="4">
-        <v>2.27</v>
-      </c>
-      <c r="I2" s="5">
-        <v>14.86</v>
+        <v>6.92</v>
+      </c>
+      <c r="I2" s="4">
+        <v>13.24</v>
       </c>
       <c r="J2" s="4">
-        <v>56829</v>
-      </c>
-      <c r="K2" s="5">
-        <v>46400</v>
+        <v>779071</v>
+      </c>
+      <c r="K2" s="4">
+        <v>810226</v>
       </c>
       <c r="L2" s="4">
-        <v>56517</v>
-      </c>
-      <c r="M2" s="5">
-        <v>34767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>56928.93506456845</v>
-      </c>
-      <c r="C3" s="3">
-        <v>55114.97783579399</v>
-      </c>
-      <c r="D3" s="3">
-        <v>56950.48446216419</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45233.67415171812</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.84</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.81</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.99</v>
-      </c>
-      <c r="I3" s="6">
-        <v>21.89</v>
-      </c>
-      <c r="J3" s="4">
-        <v>56928</v>
-      </c>
-      <c r="K3" s="4">
-        <v>55114</v>
-      </c>
-      <c r="L3" s="4">
-        <v>56950</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
+        <v>845780</v>
+      </c>
+      <c r="M2" s="4">
+        <v>809771</v>
       </c>
     </row>
   </sheetData>
